--- a/Raw_data/EAB_Michigan_2024_raw_data.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45FED767-D73A-4595-97C3-8C403A54F2DC}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0646DB2C-9762-4348-B421-E67FD1534FCD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13796" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13836" uniqueCount="1280">
   <si>
     <t>ash plot centers</t>
   </si>
@@ -1951,9 +1951,6 @@
     <t>bitternut hickory</t>
   </si>
   <si>
-    <t>ash_plot_centers_notes_2024</t>
-  </si>
-  <si>
     <t>seedlings_done_y_n</t>
   </si>
   <si>
@@ -3022,9 +3019,6 @@
     <t>Water 2-3 feet deep.</t>
   </si>
   <si>
-    <t>Tree dead - approx 14 cm DBH - Note: found only 1 PVC and the tree tag. Ran out of time to replace other PVCs.</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -3797,6 +3791,99 @@
   </si>
   <si>
     <t>possible deer browsing</t>
+  </si>
+  <si>
+    <t>16.6 cm Acer saccharinum</t>
+  </si>
+  <si>
+    <t>Date_relocated_2024_2025</t>
+  </si>
+  <si>
+    <t>Directions_updated_2024_2025</t>
+  </si>
+  <si>
+    <t>ash_plot_centers_notes_2024_2025</t>
+  </si>
+  <si>
+    <t>Center_tree_updated_2024_2025</t>
+  </si>
+  <si>
+    <t>Center_tree_2024_2025_species</t>
+  </si>
+  <si>
+    <t>Center_tree_2024_2025_total_DBH_cm</t>
+  </si>
+  <si>
+    <t>Center_tree_2024_2025_number_of_stems</t>
+  </si>
+  <si>
+    <t>05_28_2025</t>
+  </si>
+  <si>
+    <t>40.2 cm Acer saccharinum</t>
+  </si>
+  <si>
+    <t>40.6 cm Quercus macrocarpa</t>
+  </si>
+  <si>
+    <t>05_22_2025</t>
+  </si>
+  <si>
+    <t>38.6+21.2+17.0 cm Acer saccharinum</t>
+  </si>
+  <si>
+    <t>Lots of ash seedlings outside microplots</t>
+  </si>
+  <si>
+    <t>44.6 cm Acer saccharinum</t>
+  </si>
+  <si>
+    <t>05_27_2025</t>
+  </si>
+  <si>
+    <t>31.9 + 51.8 cm Acer saccharinum</t>
+  </si>
+  <si>
+    <t>South microplot PVC is misplaced. Two of the four stems have fallen</t>
+  </si>
+  <si>
+    <t>06_11_2025</t>
+  </si>
+  <si>
+    <t>2.0+5.6+2.4+3.0 Acer saccharinum</t>
+  </si>
+  <si>
+    <t>Tree dead - approx 14 cm DBH</t>
+  </si>
+  <si>
+    <t>05_20_2025</t>
+  </si>
+  <si>
+    <t>White oak - Sassafras - Populus sp. - Ostraya - Swamp white oak - cherry</t>
+  </si>
+  <si>
+    <t>14.2+8.5 Ostraya</t>
+  </si>
+  <si>
+    <t>Ostraya virginiana</t>
+  </si>
+  <si>
+    <t>Cottonwood - elm - Carpinus - Red or black oak - swamp white oak - silver maple</t>
+  </si>
+  <si>
+    <t>19.0 cm Prunus serotina</t>
+  </si>
+  <si>
+    <t>Red oak - hickory - Ostraya - white oak - walnut</t>
+  </si>
+  <si>
+    <t>Ostraya - white oak - cherry - hickory - tilia - brambles - currants - ash saplings in the open area</t>
+  </si>
+  <si>
+    <t>31.1 cm Carya</t>
+  </si>
+  <si>
+    <t>35.4+33.1 cm Quercus alba</t>
   </si>
 </sst>
 </file>
@@ -4466,10 +4553,10 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4586,10 +4673,10 @@
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4696,10 +4783,10 @@
     </row>
     <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -5402,16 +5489,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9B7B5-2AB9-47DB-BE61-07183C669AF8}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="10.6328125" style="2"/>
+    <col min="7" max="7" width="32.7265625" customWidth="1"/>
+    <col min="11" max="11" width="32.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5437,34 +5526,34 @@
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>1250</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>1251</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -5481,26 +5570,26 @@
         <v>-83.670538800000003</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="J2" s="3"/>
       <c r="L2" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>645</v>
       </c>
       <c r="N2" s="3">
         <v>23.2</v>
@@ -5532,28 +5621,28 @@
         <v>-83.67076505</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="N3" s="3">
         <v>11.25</v>
@@ -5585,31 +5674,31 @@
         <v>-83.670932440000001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>205</v>
@@ -5626,7 +5715,7 @@
     </row>
     <row r="5" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -5638,23 +5727,37 @@
         <v>-83.913361170000002</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="K5" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N5" s="3">
+        <f>14.2+8.5</f>
+        <v>22.7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
       <c r="P5" t="s">
         <v>179</v>
       </c>
@@ -5667,7 +5770,7 @@
     </row>
     <row r="6" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -5679,29 +5782,29 @@
         <v>-83.913092160000005</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="N6" s="3">
         <v>90</v>
@@ -5719,9 +5822,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -5733,23 +5836,36 @@
         <v>-83.913823320000006</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="K7" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="N7" s="3">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
       <c r="P7" t="s">
         <v>179</v>
       </c>
@@ -5760,7 +5876,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5774,29 +5890,29 @@
         <v>-83.667223190000001</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="N8" s="3">
         <v>18.600000000000001</v>
@@ -5828,29 +5944,29 @@
         <v>-83.666427560000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>684</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>686</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N9" s="3">
         <f>36.7+12.8</f>
@@ -5883,29 +5999,29 @@
         <v>-83.66709668</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="N10" s="3">
         <v>16.100000000000001</v>
@@ -5925,7 +6041,7 @@
     </row>
     <row r="11" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -5937,29 +6053,29 @@
         <v>-83.914113369999995</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N11" s="3">
         <v>40.6</v>
@@ -5979,7 +6095,7 @@
     </row>
     <row r="12" spans="1:18" ht="203" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5991,34 +6107,34 @@
         <v>-83.914299380000003</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>205</v>
@@ -6035,7 +6151,7 @@
     </row>
     <row r="13" spans="1:18" ht="232" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -6047,29 +6163,29 @@
         <v>-83.914218869999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>707</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="N13" s="3">
         <v>32.799999999999997</v>
@@ -6104,26 +6220,26 @@
         <v>269</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="N14" s="3">
         <v>25.9</v>
@@ -6158,26 +6274,26 @@
         <v>269</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>722</v>
       </c>
       <c r="N15" s="3">
         <v>10.9</v>
@@ -6212,26 +6328,26 @@
         <v>269</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>239</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="N16" s="3">
         <v>9.8000000000000007</v>
@@ -6263,29 +6379,29 @@
         <v>-83.716566400000005</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="N17" s="3">
         <v>57.6</v>
@@ -6317,29 +6433,29 @@
         <v>-83.716904080000006</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>743</v>
       </c>
       <c r="N18" s="3">
         <v>34.4</v>
@@ -6371,31 +6487,31 @@
         <v>-83.717294050000007</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="N19" s="3">
         <v>29.1</v>
@@ -6430,26 +6546,26 @@
         <v>271</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>755</v>
       </c>
       <c r="N20" s="3">
         <v>33</v>
@@ -6484,26 +6600,26 @@
         <v>271</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>758</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>760</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N21" s="3">
         <v>25.2</v>
@@ -6538,31 +6654,31 @@
         <v>271</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="M22" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>205</v>
@@ -6591,29 +6707,29 @@
         <v>-83.716309580000001</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>770</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>772</v>
-      </c>
       <c r="M23" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N23" s="3">
         <v>34.1</v>
@@ -6645,29 +6761,29 @@
         <v>-83.716684799999996</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>776</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>779</v>
       </c>
       <c r="N24" s="3">
         <v>58.5</v>
@@ -6699,34 +6815,34 @@
         <v>-83.717754940000006</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="M25" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>205</v>
@@ -6758,23 +6874,23 @@
         <v>416</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>789</v>
       </c>
       <c r="J26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N26" s="3">
         <v>24.4</v>
@@ -6809,23 +6925,23 @@
         <v>416</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="J27" s="3"/>
       <c r="L27" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="N27" s="3">
         <v>13.7</v>
@@ -6860,23 +6976,23 @@
         <v>416</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>799</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N28" s="3">
         <v>22.8</v>
@@ -6908,29 +7024,29 @@
         <v>-83.566695350000003</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>807</v>
-      </c>
       <c r="M29" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N29" s="3">
         <v>29.8</v>
@@ -6962,31 +7078,31 @@
         <v>-83.566805059999993</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>813</v>
-      </c>
       <c r="M30" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N30" s="3">
         <v>48.5</v>
@@ -7018,29 +7134,29 @@
         <v>-83.569159819999996</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>816</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N31" s="3">
         <v>48.1</v>
@@ -7072,26 +7188,26 @@
         <v>-83.523183520000003</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>822</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N32" s="3">
         <v>16.2</v>
@@ -7123,26 +7239,26 @@
         <v>-83.523990069999996</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>827</v>
       </c>
       <c r="J33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N33" s="3">
         <f>43+19.7</f>
@@ -7175,26 +7291,26 @@
         <v>-83.521824260000002</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>831</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N34" s="3">
         <v>19.899999999999999</v>
@@ -7226,29 +7342,29 @@
         <v>-83.528140289999996</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>836</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>838</v>
-      </c>
       <c r="M35" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N35" s="3">
         <f>5.4+4.3</f>
@@ -7281,29 +7397,29 @@
         <v>-83.527408260000001</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>841</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>843</v>
-      </c>
       <c r="M36" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N36" s="3">
         <f>25.5+18.5+11.5</f>
@@ -7336,25 +7452,25 @@
         <v>-83.526681280000005</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>848</v>
       </c>
       <c r="N37" s="3">
         <v>23.6</v>
@@ -7386,31 +7502,31 @@
         <v>-83.545987229999994</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>854</v>
-      </c>
       <c r="M38" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>205</v>
@@ -7439,28 +7555,28 @@
         <v>-83.546326820000004</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>860</v>
-      </c>
       <c r="M39" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N39" s="3">
         <v>6.9</v>
@@ -7492,29 +7608,29 @@
         <v>-83.547082649999993</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>863</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>251</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="N40" s="3">
         <v>22.9</v>
@@ -7549,23 +7665,23 @@
         <v>278</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>870</v>
       </c>
       <c r="J41" s="3"/>
       <c r="L41" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>872</v>
       </c>
       <c r="N41" s="3">
         <v>25.8</v>
@@ -7600,26 +7716,26 @@
         <v>278</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>875</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="N42" s="3">
         <v>7.9</v>
@@ -7654,26 +7770,26 @@
         <v>278</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>881</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>884</v>
       </c>
       <c r="N43" s="3">
         <v>24.1</v>
@@ -7705,31 +7821,31 @@
         <v>-83.668975990000007</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>890</v>
-      </c>
       <c r="M44" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>205</v>
@@ -7758,28 +7874,28 @@
         <v>-83.669441109999994</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>893</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>239</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>895</v>
-      </c>
       <c r="M45" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N45" s="3">
         <f>9.1+8.9+11.6</f>
@@ -7812,28 +7928,28 @@
         <v>-83.668518800000001</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>239</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>900</v>
-      </c>
       <c r="M46" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N46" s="3">
         <v>10.9</v>
@@ -7853,7 +7969,7 @@
     </row>
     <row r="47" spans="1:18" ht="232" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B47" s="3">
         <v>49</v>
@@ -7865,28 +7981,28 @@
         <v>-83.483743790000005</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>908</v>
-      </c>
       <c r="M47" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N47" s="3">
         <v>15.9</v>
@@ -7906,7 +8022,7 @@
     </row>
     <row r="48" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B48" s="3">
         <v>50</v>
@@ -7918,26 +8034,26 @@
         <v>-83.483365610000007</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>911</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N48" s="3">
         <v>40</v>
@@ -7957,7 +8073,7 @@
     </row>
     <row r="49" spans="1:18" ht="174" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B49" s="3">
         <v>51</v>
@@ -7969,26 +8085,26 @@
         <v>-83.483544170000002</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>915</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>251</v>
       </c>
       <c r="J49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N49" s="3">
         <v>31.8</v>
@@ -8008,7 +8124,7 @@
     </row>
     <row r="50" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B50" s="3">
         <v>52</v>
@@ -8020,29 +8136,29 @@
         <v>-83.484202699999997</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>921</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>923</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N50" s="3">
         <v>35</v>
@@ -8062,7 +8178,7 @@
     </row>
     <row r="51" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B51" s="3">
         <v>53</v>
@@ -8074,29 +8190,29 @@
         <v>-83.484940769999994</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>928</v>
-      </c>
       <c r="M51" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N51" s="3">
         <v>28.1</v>
@@ -8116,7 +8232,7 @@
     </row>
     <row r="52" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B52" s="3">
         <v>54</v>
@@ -8128,26 +8244,26 @@
         <v>-83.484580829999999</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>931</v>
-      </c>
       <c r="I52" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J52" s="3"/>
       <c r="L52" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>933</v>
       </c>
       <c r="N52" s="3">
         <v>34.700000000000003</v>
@@ -8167,7 +8283,7 @@
     </row>
     <row r="53" spans="1:18" ht="261" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B53" s="3">
         <v>55</v>
@@ -8182,26 +8298,26 @@
         <v>415</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>936</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>183</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>938</v>
-      </c>
       <c r="M53" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N53" s="3">
         <v>38.1</v>
@@ -8221,7 +8337,7 @@
     </row>
     <row r="54" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B54" s="3">
         <v>56</v>
@@ -8236,23 +8352,23 @@
         <v>415</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>941</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>181</v>
       </c>
       <c r="J54" s="3"/>
       <c r="L54" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>942</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>943</v>
       </c>
       <c r="N54" s="3">
         <v>16.8</v>
@@ -8272,7 +8388,7 @@
     </row>
     <row r="55" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B55" s="3">
         <v>57</v>
@@ -8287,23 +8403,23 @@
         <v>415</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>946</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>178</v>
       </c>
       <c r="J55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N55" s="3">
         <v>39.700000000000003</v>
@@ -8323,7 +8439,7 @@
     </row>
     <row r="56" spans="1:18" ht="261" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B56" s="3">
         <v>58</v>
@@ -8335,26 +8451,26 @@
         <v>-83.482257930000003</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>951</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N56" s="3">
         <v>34.5</v>
@@ -8374,7 +8490,7 @@
     </row>
     <row r="57" spans="1:18" ht="232" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B57" s="3">
         <v>59</v>
@@ -8386,29 +8502,29 @@
         <v>-83.482157099999995</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>955</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>186</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>957</v>
-      </c>
       <c r="M57" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N57" s="3">
         <v>24.7</v>
@@ -8428,7 +8544,7 @@
     </row>
     <row r="58" spans="1:18" ht="232" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B58" s="3">
         <v>60</v>
@@ -8440,29 +8556,29 @@
         <v>-83.483378310000006</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>184</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>962</v>
-      </c>
       <c r="M58" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N58" s="3">
         <v>29.9</v>
@@ -8480,7 +8596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>248</v>
       </c>
@@ -8494,23 +8610,34 @@
         <v>-83.711562999999998</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>1267</v>
+      </c>
       <c r="J59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N59" s="3">
+        <f>2+5.6+2.4+3</f>
+        <v>13</v>
+      </c>
+      <c r="O59" s="3">
+        <v>4</v>
+      </c>
       <c r="P59" t="s">
         <v>179</v>
       </c>
@@ -8535,29 +8662,29 @@
         <v>-83.711303970000003</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>969</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>971</v>
-      </c>
       <c r="M60" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N60" s="3">
         <f>16.8+9.2</f>
@@ -8590,26 +8717,26 @@
         <v>-83.711056709999994</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>974</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N61" s="3">
         <v>30.2</v>
@@ -8641,29 +8768,29 @@
         <v>-83.718800340000001</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>979</v>
-      </c>
       <c r="I62" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>981</v>
-      </c>
       <c r="M62" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N62" s="3">
         <v>16.8</v>
@@ -8695,29 +8822,29 @@
         <v>-83.719115880000004</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>984</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>986</v>
-      </c>
       <c r="M63" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N63" s="3">
         <v>34.5</v>
@@ -8749,34 +8876,34 @@
         <v>-83.719402799999997</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="K64" s="3" t="s">
-        <v>991</v>
-      </c>
       <c r="L64" s="3" t="s">
-        <v>992</v>
+        <v>1269</v>
       </c>
       <c r="M64" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>205</v>
@@ -8805,26 +8932,26 @@
         <v>-83.496523370000006</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>995</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="J65" s="3"/>
       <c r="L65" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N65" s="3">
         <f>24.7+23.7</f>
@@ -8857,26 +8984,26 @@
         <v>-83.496488479999996</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>1001</v>
-      </c>
       <c r="I66" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J66" s="3"/>
       <c r="L66" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N66" s="3">
         <v>9.8000000000000007</v>
@@ -8908,29 +9035,29 @@
         <v>-83.495847280000007</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>1005</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N67" s="3">
         <f>10.1+22.8</f>
@@ -8966,28 +9093,28 @@
         <v>275</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="I68" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>1013</v>
-      </c>
       <c r="M68" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N68" s="3">
         <f>4.7+3+5.4+10.8</f>
@@ -9023,26 +9150,26 @@
         <v>275</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>1016</v>
-      </c>
       <c r="I69" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N69" s="3">
         <v>18.899999999999999</v>
@@ -9077,23 +9204,23 @@
         <v>275</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>1021</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J70" s="3"/>
       <c r="L70" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N70" s="3">
         <v>38.1</v>
@@ -9125,29 +9252,29 @@
         <v>-83.494639359999994</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>1026</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N71" s="3">
         <v>29.8</v>
@@ -9179,29 +9306,29 @@
         <v>-83.494151380000005</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F72" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>1031</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N72" s="3">
         <v>55.2</v>
@@ -9233,26 +9360,26 @@
         <v>-83.493605619999997</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>1036</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -9277,7 +9404,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -9287,13 +9414,13 @@
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N74" s="3">
         <f>25.5+26.7</f>
@@ -9322,7 +9449,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -9331,16 +9458,16 @@
         <v>261</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M75" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N75" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>205</v>
@@ -9369,29 +9496,29 @@
         <v>-83.495708969999995</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>1046</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N76" s="3">
         <f>17.5+8.2</f>
@@ -9424,31 +9551,31 @@
         <v>-83.494821000000002</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>1051</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>1054</v>
-      </c>
       <c r="M77" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N77" s="3">
         <v>38.200000000000003</v>
@@ -9480,29 +9607,29 @@
         <v>-83.494080699999998</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>1055</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>1057</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>254</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N78" s="3">
         <v>24.6</v>
@@ -9534,29 +9661,29 @@
         <v>-83.497063729999994</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>1061</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>1063</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>263</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N79" s="3">
         <v>42.8</v>
@@ -9588,29 +9715,29 @@
         <v>-83.49893342</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>1068</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>263</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N80" s="3">
         <v>17.399999999999999</v>
@@ -9642,31 +9769,31 @@
         <v>-83.498038410000007</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>1073</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>263</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M81" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N81" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>205</v>
@@ -9698,28 +9825,28 @@
         <v>417</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>1080</v>
-      </c>
       <c r="M82" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N82" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>205</v>
@@ -9751,26 +9878,26 @@
         <v>417</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>1083</v>
-      </c>
       <c r="I83" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="L83" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N83" s="3">
         <v>15.6</v>
@@ -9805,31 +9932,31 @@
         <v>417</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="I84" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>1091</v>
-      </c>
       <c r="M84" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O84" s="3">
         <v>2</v>
@@ -9858,34 +9985,34 @@
         <v>-83.550938880000004</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="I85" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>1098</v>
-      </c>
       <c r="M85" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>205</v>
@@ -9914,29 +10041,29 @@
         <v>-83.550895679999996</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>1101</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>254</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N86" s="3">
         <v>37.299999999999997</v>
@@ -9968,29 +10095,29 @@
         <v>-83.55062169</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>1106</v>
-      </c>
       <c r="I87" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N87" s="3">
         <f>13.6+33.8</f>
@@ -10023,29 +10150,29 @@
         <v>-83.55230573</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>1112</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N88" s="3">
         <v>21.9</v>
@@ -10077,29 +10204,29 @@
         <v>-83.553977410000002</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F89" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>1117</v>
-      </c>
       <c r="I89" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N89" s="3">
         <v>54.4</v>
@@ -10131,29 +10258,29 @@
         <v>-83.553657619999996</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F90" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>1122</v>
-      </c>
       <c r="I90" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M90" s="3" t="s">
         <v>1123</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="N90" s="3">
         <v>25.6</v>
@@ -10171,9 +10298,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B91" s="3">
         <v>91</v>
@@ -10185,26 +10312,29 @@
         <v>-83.911661679999995</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="I91" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="L91" s="3" t="s">
-        <v>1130</v>
-      </c>
       <c r="M91" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N91" s="3">
         <f>57.2+46.8</f>
@@ -10225,7 +10355,7 @@
     </row>
     <row r="92" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B92" s="3">
         <v>92</v>
@@ -10237,23 +10367,36 @@
         <v>-83.912291449999998</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F92" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I92" s="3"/>
+      <c r="I92" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="J92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
+      <c r="K92" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="N92" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="O92" s="3">
+        <v>1</v>
+      </c>
       <c r="P92" t="s">
         <v>179</v>
       </c>
@@ -10266,7 +10409,7 @@
     </row>
     <row r="93" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B93" s="3">
         <v>93</v>
@@ -10278,23 +10421,34 @@
         <v>-83.912675890000003</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F93" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="J93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="N93" s="3">
+        <f>35.4+33.1</f>
+        <v>68.5</v>
+      </c>
+      <c r="O93" s="3">
+        <v>2</v>
+      </c>
       <c r="P93" t="s">
         <v>179</v>
       </c>
@@ -10307,7 +10461,7 @@
     </row>
     <row r="94" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B94" s="3">
         <v>94</v>
@@ -10319,26 +10473,26 @@
         <v>-83.482740710000002</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>1140</v>
-      </c>
       <c r="I94" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J94" s="3"/>
       <c r="L94" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N94" s="3">
         <v>15</v>
@@ -10358,7 +10512,7 @@
     </row>
     <row r="95" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B95" s="3">
         <v>95</v>
@@ -10370,26 +10524,26 @@
         <v>-83.483042400000002</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>1144</v>
-      </c>
       <c r="I95" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J95" s="3"/>
       <c r="L95" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N95" s="3">
         <f>15.7+13.2</f>
@@ -10410,7 +10564,7 @@
     </row>
     <row r="96" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B96" s="3">
         <v>96</v>
@@ -10422,26 +10576,26 @@
         <v>-83.482712809999995</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F96" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>1148</v>
-      </c>
       <c r="I96" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J96" s="3"/>
       <c r="L96" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N96" s="3">
         <v>14.2</v>
@@ -10461,7 +10615,7 @@
     </row>
     <row r="97" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B97" s="3">
         <v>97</v>
@@ -10473,26 +10627,26 @@
         <v>-83.482106900000005</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>1153</v>
-      </c>
       <c r="I97" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J97" s="3"/>
       <c r="L97" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N97" s="3">
         <v>26.2</v>
@@ -10512,7 +10666,7 @@
     </row>
     <row r="98" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B98" s="3">
         <v>98</v>
@@ -10524,26 +10678,26 @@
         <v>-83.481834570000004</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F98" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="I98" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J98" s="3"/>
       <c r="L98" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N98" s="3">
         <v>20.7</v>
@@ -10563,7 +10717,7 @@
     </row>
     <row r="99" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B99" s="3">
         <v>99</v>
@@ -10575,26 +10729,26 @@
         <v>-83.482209499999996</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>1161</v>
-      </c>
       <c r="I99" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J99" s="3"/>
       <c r="L99" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N99" s="3">
         <v>28.5</v>
@@ -10614,7 +10768,7 @@
     </row>
     <row r="100" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B100" s="3">
         <v>100</v>
@@ -10626,29 +10780,29 @@
         <v>-83.481901570000005</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>1166</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>182</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N100" s="3">
         <v>34.9</v>
@@ -10668,7 +10822,7 @@
     </row>
     <row r="101" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B101" s="3">
         <v>101</v>
@@ -10680,29 +10834,29 @@
         <v>-83.480959240000004</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>1169</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>1171</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>187</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N101" s="3">
         <v>24</v>
@@ -10722,7 +10876,7 @@
     </row>
     <row r="102" spans="1:18" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B102" s="3">
         <v>102</v>
@@ -10734,29 +10888,29 @@
         <v>-83.480460379999997</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F102" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>1174</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>1176</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>187</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N102" s="3">
         <v>40</v>
@@ -10774,7 +10928,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>260</v>
       </c>
@@ -10788,23 +10942,33 @@
         <v>-83.493421240000004</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I103" s="3"/>
+      <c r="I103" s="3" t="s">
+        <v>1257</v>
+      </c>
       <c r="J103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
+      <c r="L103" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N103" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1</v>
+      </c>
       <c r="P103" t="s">
         <v>179</v>
       </c>
@@ -10815,7 +10979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>260</v>
       </c>
@@ -10829,23 +10993,33 @@
         <v>-83.493822199999997</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3" t="s">
+        <v>1257</v>
+      </c>
       <c r="J104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
+      <c r="L104" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N104" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O104" s="3">
+        <v>1</v>
+      </c>
       <c r="P104" t="s">
         <v>179</v>
       </c>
@@ -10870,23 +11044,33 @@
         <v>-83.49360969</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I105" s="3"/>
+      <c r="I105" s="3" t="s">
+        <v>1257</v>
+      </c>
       <c r="J105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
+      <c r="L105" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="N105" s="3">
+        <v>40.6</v>
+      </c>
+      <c r="O105" s="3">
+        <v>1</v>
+      </c>
       <c r="P105" t="s">
         <v>179</v>
       </c>
@@ -10897,7 +11081,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>260</v>
       </c>
@@ -10911,23 +11095,34 @@
         <v>-83.493866729999993</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I106" s="3"/>
+      <c r="I106" s="3" t="s">
+        <v>1260</v>
+      </c>
       <c r="J106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="L106" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N106" s="3">
+        <f>38.6+21.2+17</f>
+        <v>76.8</v>
+      </c>
+      <c r="O106" s="3">
+        <v>3</v>
+      </c>
       <c r="P106" t="s">
         <v>179</v>
       </c>
@@ -10938,7 +11133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>260</v>
       </c>
@@ -10952,23 +11147,36 @@
         <v>-83.494123939999994</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I107" s="3"/>
+      <c r="I107" s="3" t="s">
+        <v>1260</v>
+      </c>
       <c r="J107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="K107" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N107" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="O107" s="3">
+        <v>1</v>
+      </c>
       <c r="P107" t="s">
         <v>179</v>
       </c>
@@ -10979,7 +11187,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>260</v>
       </c>
@@ -10993,23 +11201,37 @@
         <v>-83.494985650000004</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I108" s="3"/>
+      <c r="I108" s="3" t="s">
+        <v>1264</v>
+      </c>
       <c r="J108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
+      <c r="K108" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N108" s="3">
+        <f>31.9+51.8</f>
+        <v>83.699999999999989</v>
+      </c>
+      <c r="O108" s="3">
+        <v>2</v>
+      </c>
       <c r="P108" t="s">
         <v>179</v>
       </c>
@@ -11020,7 +11242,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>260</v>
       </c>
@@ -11034,27 +11256,33 @@
         <v>-83.496243629999995</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>1200</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>261</v>
       </c>
       <c r="J109" s="3"/>
       <c r="L109" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+        <v>1201</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="N109" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="O109" s="3">
+        <v>1</v>
+      </c>
       <c r="P109" t="s">
         <v>179</v>
       </c>
@@ -11079,31 +11307,31 @@
         <v>-83.495794520000004</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F110" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="I110" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="J110" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>1209</v>
-      </c>
       <c r="M110" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N110" s="3">
         <v>37.700000000000003</v>
@@ -11135,34 +11363,34 @@
         <v>-83.495138870000005</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F111" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="I111" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="J111" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="L111" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="K111" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>1215</v>
-      </c>
       <c r="M111" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>205</v>
@@ -11191,31 +11419,31 @@
         <v>-83.671224730000006</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="I112" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J112" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="L112" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>1221</v>
-      </c>
       <c r="M112" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N112" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>205</v>
@@ -11244,29 +11472,29 @@
         <v>-83.67146597</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F113" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>1225</v>
       </c>
       <c r="J113" s="3"/>
       <c r="K113" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M113" s="3" t="s">
         <v>1226</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>1228</v>
       </c>
       <c r="N113" s="3">
         <v>57.3</v>
@@ -11298,26 +11526,26 @@
         <v>-83.6712658</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>1231</v>
-      </c>
       <c r="I114" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="J114" s="3"/>
       <c r="L114" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N114" s="3">
         <v>96</v>
@@ -11374,9 +11602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939665F7-7521-4BEF-B2D9-46780C59A1B3}">
   <dimension ref="A1:O497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N414" sqref="N414"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11394,7 +11622,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -29720,7 +29948,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O398" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.35">
@@ -29943,7 +30171,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O403" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.35">
@@ -30034,7 +30262,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O405" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.35">
@@ -30345,7 +30573,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O412" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.35">
@@ -30392,7 +30620,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O413" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.35">
@@ -33258,7 +33486,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O478" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.35">
@@ -33613,7 +33841,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O486" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.35">
@@ -33704,7 +33932,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O488" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.35">
@@ -33751,7 +33979,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O489" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.35">
@@ -33798,7 +34026,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O490" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.35">
@@ -33845,7 +34073,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="O491" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.35">
@@ -34121,7 +34349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C9B6C6-12D3-4570-8774-02EC12D8D43B}">
   <dimension ref="A1:N449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
@@ -34139,7 +34367,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -48261,7 +48489,7 @@
         <v>273</v>
       </c>
       <c r="D414" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G414">
         <v>1</v>
@@ -48296,7 +48524,7 @@
         <v>292</v>
       </c>
       <c r="D415" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G415">
         <v>3</v>
@@ -48372,7 +48600,7 @@
         <v>277</v>
       </c>
       <c r="D417" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G417">
         <v>2</v>
@@ -48805,7 +49033,7 @@
         <v>33</v>
       </c>
       <c r="N428" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.35">
@@ -49622,7 +49850,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -75010,7 +75238,7 @@
         <v>180</v>
       </c>
       <c r="S497" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="U497" t="s">
         <v>311</v>
@@ -75245,7 +75473,7 @@
         <v>205</v>
       </c>
       <c r="S502" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="T502" t="s">
         <v>205</v>
@@ -75298,7 +75526,7 @@
         <v>180</v>
       </c>
       <c r="R503" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.35">
@@ -75390,7 +75618,7 @@
         <v>180</v>
       </c>
       <c r="S505" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="506" spans="1:21" x14ac:dyDescent="0.35">

--- a/Raw_data/EAB_Michigan_2024_raw_data.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0646DB2C-9762-4348-B421-E67FD1534FCD}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D63595-4C86-4E8A-9A6A-DF6234C953D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -4078,10 +4078,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5768,7 +5764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>658</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>237</v>
       </c>
@@ -5930,7 +5926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>237</v>
       </c>
@@ -5985,7 +5981,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>237</v>
       </c>
@@ -6039,7 +6035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>658</v>
       </c>
@@ -6093,7 +6089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>658</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>658</v>
       </c>
@@ -6203,7 +6199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>237</v>
       </c>
@@ -6311,7 +6307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>237</v>
       </c>
@@ -6365,7 +6361,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>248</v>
       </c>
@@ -6419,7 +6415,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>248</v>
       </c>
@@ -6473,7 +6469,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>248</v>
       </c>
@@ -6529,7 +6525,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>237</v>
       </c>
@@ -6583,7 +6579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>237</v>
       </c>
@@ -6637,7 +6633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>237</v>
       </c>
@@ -6693,7 +6689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>248</v>
       </c>
@@ -6747,7 +6743,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>248</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>250</v>
       </c>
@@ -6908,7 +6904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>250</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>250</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>253</v>
       </c>
@@ -7120,7 +7116,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>253</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>250</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>250</v>
       </c>
@@ -7277,7 +7273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>250</v>
       </c>
@@ -7328,7 +7324,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>250</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>250</v>
       </c>
@@ -7438,7 +7434,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>250</v>
       </c>
@@ -7594,7 +7590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>250</v>
       </c>
@@ -7648,7 +7644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>237</v>
       </c>
@@ -7699,7 +7695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>237</v>
       </c>
@@ -7753,7 +7749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>237</v>
       </c>
@@ -7860,7 +7856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>237</v>
       </c>
@@ -7914,7 +7910,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>237</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>900</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>900</v>
       </c>
@@ -8071,7 +8067,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>900</v>
       </c>
@@ -8122,7 +8118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>900</v>
       </c>
@@ -8176,7 +8172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>900</v>
       </c>
@@ -8230,7 +8226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>900</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>900</v>
       </c>
@@ -8335,7 +8331,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>900</v>
       </c>
@@ -8437,7 +8433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>900</v>
       </c>
@@ -8488,7 +8484,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>900</v>
       </c>
@@ -8542,7 +8538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>900</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="290" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>248</v>
       </c>
@@ -8703,7 +8699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>248</v>
       </c>
@@ -8754,7 +8750,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>248</v>
       </c>
@@ -8808,7 +8804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="290" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>248</v>
       </c>
@@ -8918,7 +8914,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>260</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>260</v>
       </c>
@@ -9021,7 +9017,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>260</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>260</v>
       </c>
@@ -9133,7 +9129,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>260</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>260</v>
       </c>
@@ -9238,7 +9234,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>260</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="203" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>260</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>260</v>
       </c>
@@ -9394,7 +9390,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>260</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>260</v>
       </c>
@@ -9537,7 +9533,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>260</v>
       </c>
@@ -9593,7 +9589,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>260</v>
       </c>
@@ -9647,7 +9643,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="319" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>260</v>
       </c>
@@ -9701,7 +9697,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="261" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>260</v>
       </c>
@@ -9755,7 +9751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>253</v>
       </c>
@@ -9861,7 +9857,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>253</v>
       </c>
@@ -10027,7 +10023,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>253</v>
       </c>
@@ -10081,7 +10077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="232" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>253</v>
       </c>
@@ -10136,7 +10132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="116" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>253</v>
       </c>
@@ -10190,7 +10186,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>253</v>
       </c>
@@ -10244,7 +10240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>253</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>658</v>
       </c>
@@ -10459,7 +10455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>900</v>
       </c>
@@ -10510,7 +10506,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>900</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>900</v>
       </c>
@@ -10613,7 +10609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>900</v>
       </c>
@@ -10715,7 +10711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>900</v>
       </c>
@@ -10766,7 +10762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>900</v>
       </c>
@@ -10820,7 +10816,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>900</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>900</v>
       </c>
@@ -11081,7 +11077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>260</v>
       </c>
@@ -11293,7 +11289,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>260</v>
       </c>
@@ -11458,7 +11454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="116" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>237</v>
       </c>
@@ -11512,7 +11508,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -11602,7 +11598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939665F7-7521-4BEF-B2D9-46780C59A1B3}">
   <dimension ref="A1:O497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
@@ -49817,9 +49813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6AEDCB-EB20-4A27-B5F9-562B1BCB4799}">
   <dimension ref="A1:U506"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49828,7 +49824,7 @@
     <col min="2" max="2" width="5.90625" customWidth="1"/>
     <col min="3" max="3" width="4.1796875" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="5.453125" customWidth="1"/>
     <col min="8" max="8" width="4.54296875" customWidth="1"/>

--- a/Raw_data/EAB_Michigan_2024_raw_data.xlsx
+++ b/Raw_data/EAB_Michigan_2024_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D63595-4C86-4E8A-9A6A-DF6234C953D7}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{A7ACBD6E-2F63-44C7-8F1E-736DE6EFC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{064D1B8E-C72E-439B-B353-C078218102D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="13100" windowHeight="7360" firstSheet="7" activeTab="7" xr2:uid="{D56E7662-2475-4D97-B5C1-D9759644101D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -4078,6 +4078,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49813,7 +49817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6AEDCB-EB20-4A27-B5F9-562B1BCB4799}">
   <dimension ref="A1:U506"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S92" sqref="S92"/>
     </sheetView>
@@ -78024,8 +78028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BDC16F-D4B0-4B1B-9118-1D36C8ED450D}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -79468,8 +79472,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724319E5-DC26-4526-87D1-9D6460B1C0EF}">
   <dimension ref="A1:AU136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
